--- a/file/VOC2007/VOC_sta.xlsx
+++ b/file/VOC2007/VOC_sta.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大三下\高级实训\CNN-3\file\VOC2007\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAEB5C8E-38F1-4DCA-ACDF-669457816F5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E0CE18-E189-4889-A513-AF8E534AB598}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="VOC_sta" sheetId="1" r:id="rId1"/>
+    <sheet name="Train" sheetId="1" r:id="rId1"/>
+    <sheet name="TrainVal" sheetId="3" r:id="rId2"/>
+    <sheet name="Test" sheetId="2" r:id="rId3"/>
+    <sheet name="Val" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="29">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -766,22 +769,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>246408</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>167723</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>683523</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>98107</xdr:rowOff>
+      <xdr:rowOff>40543</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2">
+        <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40D21CCF-F202-41E6-9C9D-E82B1D3A3439}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5327D946-442C-48D5-BDF2-44F3AD60A565}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -803,7 +806,1012 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="2171700"/>
+          <a:off x="246408" y="2263223"/>
+          <a:ext cx="10104990" cy="5397320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>586908</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>79598</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>333460</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>151201</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A55931CB-9F5F-4585-AE9D-CED2DC0BF435}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="586908" y="8461598"/>
+          <a:ext cx="10104990" cy="5405603"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>283435</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>118818</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>26882</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>190421</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A261AD8-52BC-4F1B-8C58-FEE3AEC6C461}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10641873" y="2214318"/>
+          <a:ext cx="10101884" cy="5405603"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>403412</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>65833</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123583</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EE6BECF-19C9-480D-9E2D-B874792BC82F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14758147" y="95250"/>
+          <a:ext cx="13333598" cy="1821274"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>563337</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>98331</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>487816</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>48120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA71B83A-536B-4539-B777-1707AE0AE038}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21280212" y="14957331"/>
+          <a:ext cx="10282917" cy="5855289"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>545646</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>466927</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>130765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F7D72F8-F8B5-4C0B-A9BD-94E7C3D64A6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10904084" y="14859000"/>
+          <a:ext cx="10279718" cy="5845765"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>145919</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>95708</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAFE8566-8B3D-4E1C-84FB-37348C0ED236}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="690563" y="15195419"/>
+          <a:ext cx="10267950" cy="5855289"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>103909</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>121228</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>561109</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>46153</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27822298-C097-44C4-8A38-05C46790922E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="103909" y="2264353"/>
+          <a:ext cx="10041731" cy="5104144"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>167318</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>115364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>624518</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>32496</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{168D263E-AC31-4F1A-9E06-FF177C460882}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="167318" y="8254909"/>
+          <a:ext cx="10155382" cy="4939405"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>133746</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>136343</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>590946</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>53475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F644904D-EF28-4336-94FE-8A0881A44448}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10524655" y="2214525"/>
+          <a:ext cx="10155382" cy="4939405"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>299357</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>158881</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1119</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{847E52A1-DA2C-4327-9323-82CF6C32FEBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14586857" y="13607"/>
+          <a:ext cx="13466667" cy="1933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>315515</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>53578</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>41672</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>29766</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25CEB1C1-F8F4-41EA-BE7A-1AFADBCA0924}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1684734" y="5947172"/>
+          <a:ext cx="410766" cy="511969"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>408384</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>130968</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>41672</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="矩形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DA7BFB5-4D3B-4FFA-BA34-DBCD19AAA234}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2462212" y="5903119"/>
+          <a:ext cx="407194" cy="567928"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>527446</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>134541</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>253603</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="矩形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6546F9E4-4E64-4FEA-AC96-E85F7409D679}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3265884" y="5849541"/>
+          <a:ext cx="410766" cy="698896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>126206</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>75009</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="矩形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8D5470C-0B03-49BF-AEA2-37B8B6C69B48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5192315" y="5805488"/>
+          <a:ext cx="410766" cy="698896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>153591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>230981</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="矩形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16BD42F8-CDC8-4284-A7CD-DC9F0189622E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5981699" y="5868591"/>
+          <a:ext cx="410766" cy="698896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>591740</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>139303</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317896</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="矩形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBC58750-6C85-4489-8A57-B88AD069E8A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6753224" y="5854303"/>
+          <a:ext cx="410766" cy="698896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>107154</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>101203</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>517920</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="矩形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85718143-0723-463E-B36B-D5F4DF45763D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8322467" y="5816203"/>
+          <a:ext cx="410766" cy="698896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>164782</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7695BBBF-3319-489D-8DC9-122D3BC2949B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19621500" y="15763875"/>
           <a:ext cx="10058400" cy="5165407"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -815,23 +1823,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>435750</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>126187</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>98107</xdr:rowOff>
+      <xdr:colOff>135712</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>148094</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4">
+        <xdr:cNvPr id="22" name="图片 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CA40A66-93AF-4B13-88B2-FD5DAE99A46B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A1E8822-D554-4318-A043-DD14AE2A60B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -840,7 +1848,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -853,7 +1861,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10287000" y="2171700"/>
+          <a:off x="10103625" y="15556687"/>
           <a:ext cx="10058400" cy="5165407"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -867,21 +1875,176 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>109500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>131407</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="图片 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D102652-9C47-4F6B-8138-F3BCBD556524}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="15540000"/>
+          <a:ext cx="10058400" cy="5165407"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>10833</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>71320</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DCCD601-99C3-4202-84D5-71E75F8601C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="2296833"/>
+          <a:ext cx="8477133" cy="6585229"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>188100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>98107</xdr:rowOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>95707</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C179818B-BAB1-488C-A85E-62099CBB3A6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9522600"/>
+          <a:ext cx="10125075" cy="5432107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>42825</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>519724</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="7" name="图片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87A5CB48-F9CE-4DED-B93B-D0F7B7F6F1BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2A927A8-3D32-4EE1-8545-9949DC559C8F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -903,7 +2066,550 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="7781925"/>
+          <a:off x="9710700" y="2143087"/>
+          <a:ext cx="8763649" cy="6810412"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>607917</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123583</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A279CC42-5558-4828-AC20-C2D2A73F0ED9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14573250" y="0"/>
+          <a:ext cx="13466667" cy="1933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>677970</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>96605</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>523913</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>132120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2DB51BE-63EC-42D3-ABA7-A00C2288FA3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18688879" y="13258423"/>
+          <a:ext cx="10236852" cy="5057788"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>43569</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>112314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>582412</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>153154</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{263F2A65-31B6-40C4-A19A-F296DB617F10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8958969" y="13866414"/>
+          <a:ext cx="10140043" cy="5289115"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>125179</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>540500</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>159451</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C3C6E40-6F5D-42A9-8146-3FB62F5550BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="13698304"/>
+          <a:ext cx="10141700" cy="5282547"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>69273</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>103908</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>155863</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>107097</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6153BD3-2D0A-4CE2-AC88-EEAB3A6868A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="2008908"/>
+          <a:ext cx="9092045" cy="6410916"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>34636</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>115363</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>491836</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>32495</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{618E2C85-E67F-4136-9B84-ADD4B50B2F00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="34636" y="8601272"/>
+          <a:ext cx="10155382" cy="4939405"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>5591</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>153662</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>660705</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E92EBB41-55B8-4E4C-B51F-922C5A91C404}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11089227" y="2058662"/>
+          <a:ext cx="8967842" cy="6323338"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>248479</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>653472</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>111159</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7732907E-7651-4C25-8313-066A36A9D167}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14685066" y="0"/>
+          <a:ext cx="13466667" cy="1933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>452438</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>21907</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69197821-0705-4AF1-BE59-0C02C743F588}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21169313" y="16573500"/>
+          <a:ext cx="10058400" cy="5165407"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>411938</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>102375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>111901</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>124282</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3684B6BE-6CE4-43C2-B2A3-89EA4EF20430}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10770376" y="16485375"/>
+          <a:ext cx="10058400" cy="5165407"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>85688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>107595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C81C4E86-6487-40CA-BA06-8A7CB5C548B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="16468688"/>
           <a:ext cx="10058400" cy="5165407"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1215,8 +2921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="U6" sqref="A1:U6"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1297,37 +3003,37 @@
         <v>3.5</v>
       </c>
       <c r="D2">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="E2">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>2.6</v>
       </c>
       <c r="G2">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H2">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="I2">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J2">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="K2">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L2">
-        <v>9.1999999999999993</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="M2">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="N2">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="O2">
         <v>2.6</v>
@@ -1336,16 +3042,16 @@
         <v>2.5</v>
       </c>
       <c r="Q2">
-        <v>34.799999999999997</v>
+        <v>34.5</v>
       </c>
       <c r="R2">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="S2">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="T2">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="U2">
         <v>2.4</v>
@@ -1356,13 +3062,13 @@
         <v>22</v>
       </c>
       <c r="B3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="E3">
         <v>0.2</v>
@@ -1371,25 +3077,25 @@
         <v>0.1</v>
       </c>
       <c r="G3">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H3">
         <v>0.5</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="J3">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="M3">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1401,10 +3107,10 @@
         <v>0.1</v>
       </c>
       <c r="Q3">
-        <v>4.5999999999999996</v>
+        <v>3.9</v>
       </c>
       <c r="R3">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -1413,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
@@ -1433,16 +3139,16 @@
         <v>0.6</v>
       </c>
       <c r="F4">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="G4">
-        <v>1.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I4">
-        <v>2.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="J4">
         <v>4</v>
@@ -1451,34 +3157,34 @@
         <v>0.2</v>
       </c>
       <c r="L4">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="M4">
         <v>0.9</v>
       </c>
       <c r="N4">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="O4">
         <v>0.4</v>
       </c>
       <c r="P4">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="R4">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S4">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="T4">
         <v>0.3</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
@@ -1489,55 +3195,55 @@
         <v>1.2</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="D5">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="E5">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F5">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H5">
         <v>1.1000000000000001</v>
       </c>
       <c r="I5">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="J5">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="K5">
-        <v>2.2999999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L5">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M5">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="N5">
         <v>1.7</v>
       </c>
       <c r="O5">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="P5">
         <v>1.7</v>
       </c>
       <c r="Q5">
-        <v>18.3</v>
+        <v>18.7</v>
       </c>
       <c r="R5">
         <v>1.6</v>
       </c>
       <c r="S5">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="T5">
         <v>1.7</v>
@@ -1551,64 +3257,64 @@
         <v>25</v>
       </c>
       <c r="B8">
-        <v>526</v>
+        <v>131</v>
       </c>
       <c r="C8">
-        <v>1068</v>
+        <v>271</v>
       </c>
       <c r="D8">
-        <v>664</v>
+        <v>191</v>
       </c>
       <c r="E8">
-        <v>642</v>
+        <v>156</v>
       </c>
       <c r="F8">
-        <v>807</v>
+        <v>202</v>
       </c>
       <c r="G8">
-        <v>1175</v>
+        <v>294</v>
       </c>
       <c r="H8">
-        <v>791</v>
+        <v>208</v>
       </c>
       <c r="I8">
-        <v>1291</v>
+        <v>338</v>
       </c>
       <c r="J8">
-        <v>3185</v>
+        <v>826</v>
       </c>
       <c r="K8">
-        <v>759</v>
+        <v>191</v>
       </c>
       <c r="L8">
-        <v>2806</v>
+        <v>726</v>
       </c>
       <c r="M8">
-        <v>685</v>
+        <v>185</v>
       </c>
       <c r="N8">
-        <v>609</v>
+        <v>148</v>
       </c>
       <c r="O8">
-        <v>801</v>
+        <v>207</v>
       </c>
       <c r="P8">
-        <v>759</v>
+        <v>193</v>
       </c>
       <c r="Q8">
-        <v>10674</v>
+        <v>2705</v>
       </c>
       <c r="R8">
-        <v>1217</v>
+        <v>305</v>
       </c>
       <c r="S8">
-        <v>821</v>
+        <v>218</v>
       </c>
       <c r="T8">
-        <v>630</v>
+        <v>158</v>
       </c>
       <c r="U8">
-        <v>728</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
@@ -1616,64 +3322,64 @@
         <v>26</v>
       </c>
       <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>69</v>
+      </c>
+      <c r="E9">
+        <v>14</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>30</v>
+      </c>
+      <c r="H9">
+        <v>38</v>
+      </c>
+      <c r="I9">
+        <v>93</v>
+      </c>
+      <c r="J9">
+        <v>163</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>54</v>
+      </c>
+      <c r="M9">
+        <v>19</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>5</v>
+      </c>
+      <c r="P9">
+        <v>7</v>
+      </c>
+      <c r="Q9">
+        <v>305</v>
+      </c>
+      <c r="R9">
         <v>25</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>168</v>
-      </c>
-      <c r="E9">
-        <v>57</v>
-      </c>
-      <c r="F9">
-        <v>44</v>
-      </c>
-      <c r="G9">
-        <v>151</v>
-      </c>
-      <c r="H9">
-        <v>158</v>
-      </c>
-      <c r="I9">
-        <v>320</v>
-      </c>
-      <c r="J9">
-        <v>583</v>
-      </c>
-      <c r="K9">
-        <v>5</v>
-      </c>
-      <c r="L9">
-        <v>196</v>
-      </c>
-      <c r="M9">
-        <v>85</v>
-      </c>
-      <c r="N9">
-        <v>4</v>
-      </c>
-      <c r="O9">
-        <v>23</v>
-      </c>
-      <c r="P9">
-        <v>35</v>
-      </c>
-      <c r="Q9">
-        <v>1401</v>
-      </c>
-      <c r="R9">
-        <v>131</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U9">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
@@ -1681,64 +3387,64 @@
         <v>27</v>
       </c>
       <c r="B10">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="C10">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="D10">
-        <v>229</v>
+        <v>58</v>
       </c>
       <c r="E10">
-        <v>182</v>
+        <v>49</v>
       </c>
       <c r="F10">
-        <v>255</v>
+        <v>73</v>
       </c>
       <c r="G10">
-        <v>414</v>
+        <v>84</v>
       </c>
       <c r="H10">
-        <v>305</v>
+        <v>86</v>
       </c>
       <c r="I10">
-        <v>743</v>
+        <v>178</v>
       </c>
       <c r="J10">
-        <v>1239</v>
+        <v>312</v>
       </c>
       <c r="K10">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="L10">
-        <v>1445</v>
+        <v>389</v>
       </c>
       <c r="M10">
-        <v>265</v>
+        <v>72</v>
       </c>
       <c r="N10">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="O10">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c r="P10">
-        <v>193</v>
+        <v>55</v>
       </c>
       <c r="Q10">
-        <v>3669</v>
+        <v>935</v>
       </c>
       <c r="R10">
-        <v>592</v>
+        <v>154</v>
       </c>
       <c r="S10">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="T10">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="U10">
-        <v>315</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
@@ -1746,64 +3452,1871 @@
         <v>28</v>
       </c>
       <c r="B11">
-        <v>373</v>
+        <v>95</v>
       </c>
       <c r="C11">
-        <v>920</v>
+        <v>231</v>
       </c>
       <c r="D11">
+        <v>64</v>
+      </c>
+      <c r="E11">
+        <v>93</v>
+      </c>
+      <c r="F11">
+        <v>125</v>
+      </c>
+      <c r="G11">
+        <v>180</v>
+      </c>
+      <c r="H11">
+        <v>84</v>
+      </c>
+      <c r="I11">
+        <v>67</v>
+      </c>
+      <c r="J11">
+        <v>351</v>
+      </c>
+      <c r="K11">
+        <v>170</v>
+      </c>
+      <c r="L11">
+        <v>283</v>
+      </c>
+      <c r="M11">
+        <v>94</v>
+      </c>
+      <c r="N11">
+        <v>134</v>
+      </c>
+      <c r="O11">
+        <v>169</v>
+      </c>
+      <c r="P11">
+        <v>131</v>
+      </c>
+      <c r="Q11">
+        <v>1465</v>
+      </c>
+      <c r="R11">
+        <v>126</v>
+      </c>
+      <c r="S11">
+        <v>198</v>
+      </c>
+      <c r="T11">
+        <v>130</v>
+      </c>
+      <c r="U11">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE313932-CACA-4E36-A56C-004DF190F721}">
+  <dimension ref="A1:U11"/>
+  <sheetViews>
+    <sheetView topLeftCell="G64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA105" sqref="AA105"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>1.7</v>
+      </c>
+      <c r="C2">
+        <v>3.4</v>
+      </c>
+      <c r="D2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E2">
+        <v>2.1</v>
+      </c>
+      <c r="F2">
+        <v>2.7</v>
+      </c>
+      <c r="G2">
+        <v>3.8</v>
+      </c>
+      <c r="H2">
+        <v>2.5</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>10.5</v>
+      </c>
+      <c r="K2">
+        <v>2.5</v>
+      </c>
+      <c r="L2">
+        <v>9.1</v>
+      </c>
+      <c r="M2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <v>2.6</v>
+      </c>
+      <c r="P2">
+        <v>2.5</v>
+      </c>
+      <c r="Q2">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="R2">
+        <v>4</v>
+      </c>
+      <c r="S2">
+        <v>2.7</v>
+      </c>
+      <c r="T2">
+        <v>2.1</v>
+      </c>
+      <c r="U2">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>0.1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.7</v>
+      </c>
+      <c r="E3">
+        <v>0.2</v>
+      </c>
+      <c r="F3">
+        <v>0.2</v>
+      </c>
+      <c r="G3">
+        <v>0.4</v>
+      </c>
+      <c r="H3">
+        <v>0.4</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0.6</v>
+      </c>
+      <c r="M3">
+        <v>0.3</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0.1</v>
+      </c>
+      <c r="P3">
+        <v>0.1</v>
+      </c>
+      <c r="Q3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="R3">
+        <v>0.5</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>0.4</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="D4">
+        <v>0.7</v>
+      </c>
+      <c r="E4">
+        <v>0.6</v>
+      </c>
+      <c r="F4">
+        <v>0.9</v>
+      </c>
+      <c r="G4">
+        <v>1.4</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J4">
+        <v>4.2</v>
+      </c>
+      <c r="K4">
+        <v>0.2</v>
+      </c>
+      <c r="L4">
+        <v>4.8</v>
+      </c>
+      <c r="M4">
+        <v>0.8</v>
+      </c>
+      <c r="N4">
+        <v>0.3</v>
+      </c>
+      <c r="O4">
+        <v>0.4</v>
+      </c>
+      <c r="P4">
+        <v>0.6</v>
+      </c>
+      <c r="Q4">
+        <v>12</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>0.3</v>
+      </c>
+      <c r="T4">
+        <v>0.3</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>1.2</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>0.8</v>
+      </c>
+      <c r="E5">
+        <v>1.4</v>
+      </c>
+      <c r="F5">
+        <v>1.6</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I5">
+        <v>0.7</v>
+      </c>
+      <c r="J5">
+        <v>4.3</v>
+      </c>
+      <c r="K5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L5">
+        <v>3.8</v>
+      </c>
+      <c r="M5">
+        <v>1.2</v>
+      </c>
+      <c r="N5">
+        <v>1.7</v>
+      </c>
+      <c r="O5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P5">
+        <v>1.8</v>
+      </c>
+      <c r="Q5">
+        <v>18.2</v>
+      </c>
+      <c r="R5">
+        <v>1.5</v>
+      </c>
+      <c r="S5">
+        <v>2.5</v>
+      </c>
+      <c r="T5">
+        <v>1.7</v>
+      </c>
+      <c r="U5">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>272</v>
+      </c>
+      <c r="C8">
+        <v>538</v>
+      </c>
+      <c r="D8">
+        <v>353</v>
+      </c>
+      <c r="E8">
+        <v>331</v>
+      </c>
+      <c r="F8">
+        <v>418</v>
+      </c>
+      <c r="G8">
+        <v>599</v>
+      </c>
+      <c r="H8">
+        <v>398</v>
+      </c>
+      <c r="I8">
+        <v>634</v>
+      </c>
+      <c r="J8">
+        <v>1644</v>
+      </c>
+      <c r="K8">
+        <v>389</v>
+      </c>
+      <c r="L8">
+        <v>1432</v>
+      </c>
+      <c r="M8">
+        <v>356</v>
+      </c>
+      <c r="N8">
+        <v>310</v>
+      </c>
+      <c r="O8">
+        <v>406</v>
+      </c>
+      <c r="P8">
+        <v>390</v>
+      </c>
+      <c r="Q8">
+        <v>5447</v>
+      </c>
+      <c r="R8">
+        <v>625</v>
+      </c>
+      <c r="S8">
+        <v>425</v>
+      </c>
+      <c r="T8">
+        <v>328</v>
+      </c>
+      <c r="U8">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>111</v>
+      </c>
+      <c r="E9">
+        <v>27</v>
+      </c>
+      <c r="F9">
+        <v>24</v>
+      </c>
+      <c r="G9">
+        <v>63</v>
+      </c>
+      <c r="H9">
+        <v>63</v>
+      </c>
+      <c r="I9">
+        <v>163</v>
+      </c>
+      <c r="J9">
+        <v>313</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <v>87</v>
+      </c>
+      <c r="M9">
+        <v>42</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>9</v>
+      </c>
+      <c r="P9">
+        <v>17</v>
+      </c>
+      <c r="Q9">
+        <v>723</v>
+      </c>
+      <c r="R9">
+        <v>74</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>3</v>
+      </c>
+      <c r="U9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10">
+        <v>69</v>
+      </c>
+      <c r="C10">
+        <v>73</v>
+      </c>
+      <c r="D10">
+        <v>114</v>
+      </c>
+      <c r="E10">
+        <v>87</v>
+      </c>
+      <c r="F10">
+        <v>145</v>
+      </c>
+      <c r="G10">
+        <v>222</v>
+      </c>
+      <c r="H10">
+        <v>163</v>
+      </c>
+      <c r="I10">
+        <v>366</v>
+      </c>
+      <c r="J10">
+        <v>650</v>
+      </c>
+      <c r="K10">
+        <v>26</v>
+      </c>
+      <c r="L10">
+        <v>747</v>
+      </c>
+      <c r="M10">
+        <v>126</v>
+      </c>
+      <c r="N10">
+        <v>43</v>
+      </c>
+      <c r="O10">
+        <v>59</v>
+      </c>
+      <c r="P10">
+        <v>95</v>
+      </c>
+      <c r="Q10">
+        <v>1880</v>
+      </c>
+      <c r="R10">
+        <v>313</v>
+      </c>
+      <c r="S10">
+        <v>41</v>
+      </c>
+      <c r="T10">
+        <v>53</v>
+      </c>
+      <c r="U10">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11">
+        <v>188</v>
+      </c>
+      <c r="C11">
+        <v>463</v>
+      </c>
+      <c r="D11">
+        <v>128</v>
+      </c>
+      <c r="E11">
+        <v>217</v>
+      </c>
+      <c r="F11">
+        <v>249</v>
+      </c>
+      <c r="G11">
+        <v>314</v>
+      </c>
+      <c r="H11">
+        <v>172</v>
+      </c>
+      <c r="I11">
+        <v>105</v>
+      </c>
+      <c r="J11">
+        <v>681</v>
+      </c>
+      <c r="K11">
+        <v>359</v>
+      </c>
+      <c r="L11">
+        <v>598</v>
+      </c>
+      <c r="M11">
+        <v>188</v>
+      </c>
+      <c r="N11">
+        <v>266</v>
+      </c>
+      <c r="O11">
+        <v>338</v>
+      </c>
+      <c r="P11">
+        <v>278</v>
+      </c>
+      <c r="Q11">
+        <v>2844</v>
+      </c>
+      <c r="R11">
+        <v>238</v>
+      </c>
+      <c r="S11">
+        <v>384</v>
+      </c>
+      <c r="T11">
+        <v>272</v>
+      </c>
+      <c r="U11">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD22F742-3769-4B94-83E5-ECAAA7004433}">
+  <dimension ref="A1:U11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A58" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="U102" sqref="U102"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>1.7</v>
+      </c>
+      <c r="C2">
+        <v>3.5</v>
+      </c>
+      <c r="D2">
+        <v>2.1</v>
+      </c>
+      <c r="E2">
+        <v>2.1</v>
+      </c>
+      <c r="F2">
+        <v>2.6</v>
+      </c>
+      <c r="G2">
+        <v>3.8</v>
+      </c>
+      <c r="H2">
+        <v>2.6</v>
+      </c>
+      <c r="I2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J2">
+        <v>10.3</v>
+      </c>
+      <c r="K2">
+        <v>2.5</v>
+      </c>
+      <c r="L2">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="M2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <v>2.6</v>
+      </c>
+      <c r="P2">
+        <v>2.5</v>
+      </c>
+      <c r="Q2">
+        <v>34.9</v>
+      </c>
+      <c r="R2">
+        <v>4</v>
+      </c>
+      <c r="S2">
+        <v>2.6</v>
+      </c>
+      <c r="T2">
+        <v>2</v>
+      </c>
+      <c r="U2">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>0.1</v>
+      </c>
+      <c r="C3">
+        <v>0.1</v>
+      </c>
+      <c r="D3">
+        <v>0.4</v>
+      </c>
+      <c r="E3">
+        <v>0.2</v>
+      </c>
+      <c r="F3">
+        <v>0.1</v>
+      </c>
+      <c r="G3">
+        <v>0.6</v>
+      </c>
+      <c r="H3">
+        <v>0.6</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1.8</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0.7</v>
+      </c>
+      <c r="M3">
+        <v>0.3</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0.1</v>
+      </c>
+      <c r="P3">
+        <v>0.1</v>
+      </c>
+      <c r="Q3">
+        <v>4.5</v>
+      </c>
+      <c r="R3">
+        <v>0.4</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>0.4</v>
+      </c>
+      <c r="C4">
+        <v>0.4</v>
+      </c>
+      <c r="D4">
+        <v>0.8</v>
+      </c>
+      <c r="E4">
+        <v>0.6</v>
+      </c>
+      <c r="F4">
+        <v>0.7</v>
+      </c>
+      <c r="G4">
+        <v>1.3</v>
+      </c>
+      <c r="H4">
+        <v>0.9</v>
+      </c>
+      <c r="I4">
+        <v>2.5</v>
+      </c>
+      <c r="J4">
+        <v>3.9</v>
+      </c>
+      <c r="K4">
+        <v>0.2</v>
+      </c>
+      <c r="L4">
+        <v>4.7</v>
+      </c>
+      <c r="M4">
+        <v>0.9</v>
+      </c>
+      <c r="N4">
+        <v>0.3</v>
+      </c>
+      <c r="O4">
+        <v>0.4</v>
+      </c>
+      <c r="P4">
+        <v>0.7</v>
+      </c>
+      <c r="Q4">
+        <v>11.9</v>
+      </c>
+      <c r="R4">
+        <v>1.9</v>
+      </c>
+      <c r="S4">
+        <v>0.2</v>
+      </c>
+      <c r="T4">
+        <v>0.3</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>1.2</v>
+      </c>
+      <c r="C5">
+        <v>3.1</v>
+      </c>
+      <c r="D5">
+        <v>0.9</v>
+      </c>
+      <c r="E5">
+        <v>1.2</v>
+      </c>
+      <c r="F5">
+        <v>1.7</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0.8</v>
+      </c>
+      <c r="J5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L5">
+        <v>3.8</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1.6</v>
+      </c>
+      <c r="O5">
+        <v>2.1</v>
+      </c>
+      <c r="P5">
+        <v>1.7</v>
+      </c>
+      <c r="Q5">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="R5">
+        <v>1.7</v>
+      </c>
+      <c r="S5">
+        <v>2.4</v>
+      </c>
+      <c r="T5">
+        <v>1.8</v>
+      </c>
+      <c r="U5">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>254</v>
+      </c>
+      <c r="C8">
+        <v>530</v>
+      </c>
+      <c r="D8">
+        <v>311</v>
+      </c>
+      <c r="E8">
+        <v>311</v>
+      </c>
+      <c r="F8">
+        <v>389</v>
+      </c>
+      <c r="G8">
+        <v>576</v>
+      </c>
+      <c r="H8">
+        <v>393</v>
+      </c>
+      <c r="I8">
+        <v>657</v>
+      </c>
+      <c r="J8">
+        <v>1541</v>
+      </c>
+      <c r="K8">
+        <v>370</v>
+      </c>
+      <c r="L8">
+        <v>1374</v>
+      </c>
+      <c r="M8">
+        <v>329</v>
+      </c>
+      <c r="N8">
+        <v>299</v>
+      </c>
+      <c r="O8">
+        <v>395</v>
+      </c>
+      <c r="P8">
+        <v>369</v>
+      </c>
+      <c r="Q8">
+        <v>5227</v>
+      </c>
+      <c r="R8">
+        <v>592</v>
+      </c>
+      <c r="S8">
+        <v>396</v>
+      </c>
+      <c r="T8">
+        <v>302</v>
+      </c>
+      <c r="U8">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>57</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+      <c r="G9">
+        <v>88</v>
+      </c>
+      <c r="H9">
+        <v>95</v>
+      </c>
+      <c r="I9">
+        <v>157</v>
+      </c>
+      <c r="J9">
+        <v>270</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>109</v>
+      </c>
+      <c r="M9">
+        <v>43</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9">
+        <v>14</v>
+      </c>
+      <c r="P9">
+        <v>18</v>
+      </c>
+      <c r="Q9">
+        <v>678</v>
+      </c>
+      <c r="R9">
+        <v>57</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10">
+        <v>59</v>
+      </c>
+      <c r="C10">
+        <v>65</v>
+      </c>
+      <c r="D10">
+        <v>115</v>
+      </c>
+      <c r="E10">
+        <v>95</v>
+      </c>
+      <c r="F10">
+        <v>110</v>
+      </c>
+      <c r="G10">
+        <v>192</v>
+      </c>
+      <c r="H10">
+        <v>142</v>
+      </c>
+      <c r="I10">
+        <v>377</v>
+      </c>
+      <c r="J10">
+        <v>589</v>
+      </c>
+      <c r="K10">
+        <v>30</v>
+      </c>
+      <c r="L10">
+        <v>698</v>
+      </c>
+      <c r="M10">
+        <v>139</v>
+      </c>
+      <c r="N10">
+        <v>51</v>
+      </c>
+      <c r="O10">
+        <v>67</v>
+      </c>
+      <c r="P10">
+        <v>98</v>
+      </c>
+      <c r="Q10">
+        <v>1789</v>
+      </c>
+      <c r="R10">
+        <v>279</v>
+      </c>
+      <c r="S10">
+        <v>30</v>
+      </c>
+      <c r="T10">
+        <v>38</v>
+      </c>
+      <c r="U10">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11">
+        <v>185</v>
+      </c>
+      <c r="C11">
+        <v>457</v>
+      </c>
+      <c r="D11">
+        <v>139</v>
+      </c>
+      <c r="E11">
+        <v>186</v>
+      </c>
+      <c r="F11">
+        <v>259</v>
+      </c>
+      <c r="G11">
+        <v>296</v>
+      </c>
+      <c r="H11">
+        <v>156</v>
+      </c>
+      <c r="I11">
+        <v>123</v>
+      </c>
+      <c r="J11">
+        <v>682</v>
+      </c>
+      <c r="K11">
+        <v>339</v>
+      </c>
+      <c r="L11">
+        <v>567</v>
+      </c>
+      <c r="M11">
+        <v>147</v>
+      </c>
+      <c r="N11">
+        <v>245</v>
+      </c>
+      <c r="O11">
+        <v>314</v>
+      </c>
+      <c r="P11">
+        <v>253</v>
+      </c>
+      <c r="Q11">
+        <v>2760</v>
+      </c>
+      <c r="R11">
+        <v>256</v>
+      </c>
+      <c r="S11">
+        <v>366</v>
+      </c>
+      <c r="T11">
+        <v>264</v>
+      </c>
+      <c r="U11">
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84FC9C2B-D012-42C7-B14E-3C6EBBB5F329}">
+  <dimension ref="A1:U11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B71" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA95" sqref="AA95"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>1.8</v>
+      </c>
+      <c r="C2">
+        <v>3.4</v>
+      </c>
+      <c r="D2">
+        <v>2.1</v>
+      </c>
+      <c r="E2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F2">
+        <v>2.8</v>
+      </c>
+      <c r="G2">
+        <v>3.9</v>
+      </c>
+      <c r="H2">
+        <v>2.4</v>
+      </c>
+      <c r="I2">
+        <v>3.8</v>
+      </c>
+      <c r="J2">
+        <v>10.5</v>
+      </c>
+      <c r="K2">
+        <v>2.5</v>
+      </c>
+      <c r="L2">
+        <v>9</v>
+      </c>
+      <c r="M2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N2">
+        <v>2.1</v>
+      </c>
+      <c r="O2">
+        <v>2.5</v>
+      </c>
+      <c r="P2">
+        <v>2.5</v>
+      </c>
+      <c r="Q2">
+        <v>35.1</v>
+      </c>
+      <c r="R2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="S2">
+        <v>2.6</v>
+      </c>
+      <c r="T2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="U2">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>0.2</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.5</v>
+      </c>
+      <c r="E3">
+        <v>0.2</v>
+      </c>
+      <c r="F3">
+        <v>0.3</v>
+      </c>
+      <c r="G3">
+        <v>0.4</v>
+      </c>
+      <c r="H3">
+        <v>0.3</v>
+      </c>
+      <c r="I3">
+        <v>0.9</v>
+      </c>
+      <c r="J3">
+        <v>1.9</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0.4</v>
+      </c>
+      <c r="M3">
+        <v>0.3</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0.1</v>
+      </c>
+      <c r="P3">
+        <v>0.1</v>
+      </c>
+      <c r="Q3">
+        <v>5.3</v>
+      </c>
+      <c r="R3">
+        <v>0.6</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>0.5</v>
+      </c>
+      <c r="C4">
+        <v>0.4</v>
+      </c>
+      <c r="D4">
+        <v>0.7</v>
+      </c>
+      <c r="E4">
+        <v>0.5</v>
+      </c>
+      <c r="F4">
+        <v>0.9</v>
+      </c>
+      <c r="G4">
+        <v>1.8</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>2.4</v>
+      </c>
+      <c r="J4">
+        <v>4.3</v>
+      </c>
+      <c r="K4">
+        <v>0.1</v>
+      </c>
+      <c r="L4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M4">
+        <v>0.7</v>
+      </c>
+      <c r="N4">
+        <v>0.4</v>
+      </c>
+      <c r="O4">
+        <v>0.3</v>
+      </c>
+      <c r="P4">
+        <v>0.5</v>
+      </c>
+      <c r="Q4">
+        <v>12.1</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>0.3</v>
+      </c>
+      <c r="T4">
+        <v>0.3</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>1.2</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>0.8</v>
+      </c>
+      <c r="E5">
+        <v>1.6</v>
+      </c>
+      <c r="F5">
+        <v>1.6</v>
+      </c>
+      <c r="G5">
+        <v>1.7</v>
+      </c>
+      <c r="H5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I5">
+        <v>0.5</v>
+      </c>
+      <c r="J5">
+        <v>4.2</v>
+      </c>
+      <c r="K5">
+        <v>2.4</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>1.2</v>
+      </c>
+      <c r="N5">
+        <v>1.7</v>
+      </c>
+      <c r="O5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P5">
+        <v>1.9</v>
+      </c>
+      <c r="Q5">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="R5">
+        <v>1.4</v>
+      </c>
+      <c r="S5">
+        <v>2.4</v>
+      </c>
+      <c r="T5">
+        <v>1.8</v>
+      </c>
+      <c r="U5">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>141</v>
+      </c>
+      <c r="C8">
         <v>267</v>
       </c>
+      <c r="D8">
+        <v>162</v>
+      </c>
+      <c r="E8">
+        <v>175</v>
+      </c>
+      <c r="F8">
+        <v>216</v>
+      </c>
+      <c r="G8">
+        <v>305</v>
+      </c>
+      <c r="H8">
+        <v>190</v>
+      </c>
+      <c r="I8">
+        <v>296</v>
+      </c>
+      <c r="J8">
+        <v>818</v>
+      </c>
+      <c r="K8">
+        <v>198</v>
+      </c>
+      <c r="L8">
+        <v>706</v>
+      </c>
+      <c r="M8">
+        <v>171</v>
+      </c>
+      <c r="N8">
+        <v>162</v>
+      </c>
+      <c r="O8">
+        <v>199</v>
+      </c>
+      <c r="P8">
+        <v>197</v>
+      </c>
+      <c r="Q8">
+        <v>2742</v>
+      </c>
+      <c r="R8">
+        <v>320</v>
+      </c>
+      <c r="S8">
+        <v>207</v>
+      </c>
+      <c r="T8">
+        <v>170</v>
+      </c>
+      <c r="U8">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>42</v>
+      </c>
+      <c r="E9">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+      <c r="G9">
+        <v>33</v>
+      </c>
+      <c r="H9">
+        <v>25</v>
+      </c>
+      <c r="I9">
+        <v>70</v>
+      </c>
+      <c r="J9">
+        <v>150</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>33</v>
+      </c>
+      <c r="M9">
+        <v>23</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>4</v>
+      </c>
+      <c r="P9">
+        <v>10</v>
+      </c>
+      <c r="Q9">
+        <v>418</v>
+      </c>
+      <c r="R9">
+        <v>49</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>2</v>
+      </c>
+      <c r="U9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10">
+        <v>36</v>
+      </c>
+      <c r="C10">
+        <v>34</v>
+      </c>
+      <c r="D10">
+        <v>56</v>
+      </c>
+      <c r="E10">
+        <v>38</v>
+      </c>
+      <c r="F10">
+        <v>72</v>
+      </c>
+      <c r="G10">
+        <v>138</v>
+      </c>
+      <c r="H10">
+        <v>77</v>
+      </c>
+      <c r="I10">
+        <v>188</v>
+      </c>
+      <c r="J10">
+        <v>338</v>
+      </c>
+      <c r="K10">
+        <v>7</v>
+      </c>
+      <c r="L10">
+        <v>358</v>
+      </c>
+      <c r="M10">
+        <v>54</v>
+      </c>
+      <c r="N10">
+        <v>29</v>
+      </c>
+      <c r="O10">
+        <v>26</v>
+      </c>
+      <c r="P10">
+        <v>40</v>
+      </c>
+      <c r="Q10">
+        <v>945</v>
+      </c>
+      <c r="R10">
+        <v>159</v>
+      </c>
+      <c r="S10">
+        <v>21</v>
+      </c>
+      <c r="T10">
+        <v>26</v>
+      </c>
+      <c r="U10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11">
+        <v>93</v>
+      </c>
+      <c r="C11">
+        <v>232</v>
+      </c>
+      <c r="D11">
+        <v>64</v>
+      </c>
       <c r="E11">
-        <v>403</v>
+        <v>124</v>
       </c>
       <c r="F11">
-        <v>508</v>
+        <v>124</v>
       </c>
       <c r="G11">
-        <v>610</v>
+        <v>134</v>
       </c>
       <c r="H11">
-        <v>328</v>
+        <v>88</v>
       </c>
       <c r="I11">
-        <v>228</v>
+        <v>38</v>
       </c>
       <c r="J11">
-        <v>1363</v>
+        <v>330</v>
       </c>
       <c r="K11">
-        <v>698</v>
+        <v>189</v>
       </c>
       <c r="L11">
-        <v>1165</v>
+        <v>315</v>
       </c>
       <c r="M11">
-        <v>335</v>
+        <v>94</v>
       </c>
       <c r="N11">
-        <v>511</v>
+        <v>132</v>
       </c>
       <c r="O11">
-        <v>652</v>
+        <v>169</v>
       </c>
       <c r="P11">
-        <v>531</v>
+        <v>147</v>
       </c>
       <c r="Q11">
-        <v>5604</v>
+        <v>1379</v>
       </c>
       <c r="R11">
-        <v>494</v>
+        <v>112</v>
       </c>
       <c r="S11">
-        <v>750</v>
+        <v>186</v>
       </c>
       <c r="T11">
-        <v>536</v>
+        <v>142</v>
       </c>
       <c r="U11">
-        <v>370</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
